--- a/Data_files/mentoring.xlsx
+++ b/Data_files/mentoring.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="235">
   <si>
     <t>-</t>
   </si>
@@ -170,9 +170,6 @@
     <t>co-advised with M. Jewett</t>
   </si>
   <si>
-    <t>Joao Moreira</t>
-  </si>
-  <si>
     <t>Hyojun (June) Ada Lee</t>
   </si>
   <si>
@@ -215,15 +212,9 @@
     <t>ICREA, Catalonia, Spain</t>
   </si>
   <si>
-    <t>Andre A. Moreira, Ph.D.</t>
-  </si>
-  <si>
     <t>Professor of Physics</t>
   </si>
   <si>
-    <t>Universidade Federal do Ceara, Brazil</t>
-  </si>
-  <si>
     <t>Saikat Ray Majumder, Ph.D.</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
     <t>University of Wisconsin at Milwaukee Foundation</t>
   </si>
   <si>
-    <t>Graduate Student at Universidade Estadual de Maringá</t>
-  </si>
-  <si>
     <t>Assistant Professor of Biostatistics</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>Graduate Student at Instituto Nacional de Pesquisas Espaciais</t>
   </si>
   <si>
-    <t>Universidade Estadual de Maringá</t>
-  </si>
-  <si>
     <t>Graduate Student at Universitat Rovira i Virgili</t>
   </si>
   <si>
@@ -434,9 +419,6 @@
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>Graduate Student at Universidade de Sao Paulo</t>
-  </si>
-  <si>
     <t>Samantha Crowe</t>
   </si>
   <si>
@@ -605,9 +587,6 @@
     <t>NU Presidential Fellow</t>
   </si>
   <si>
-    <t>Fundação para a Ciência e Tecnologia Fellow</t>
-  </si>
-  <si>
     <t>Runner-up, Distinguished Graduate Researcher Award</t>
   </si>
   <si>
@@ -635,9 +614,6 @@
     <t>Alexander M. Franks, Ph.D.</t>
   </si>
   <si>
-    <t>Joana Miguens, M.Sc.</t>
-  </si>
-  <si>
     <t>Audrey Salazar, Ph.D.</t>
   </si>
   <si>
@@ -665,9 +641,6 @@
     <t>Current</t>
   </si>
   <si>
-    <t>NSF IGERT Trainee; Junta para la Ampliación de Estudios, Juan de la Cierva Fellowship, University of Canterbury Early and Emerging Career Researcher Award; Rutherford Discovery Fellow; ESA Junior Fellow</t>
-  </si>
-  <si>
     <t>Associate Professor, School of Biological Sciences</t>
   </si>
   <si>
@@ -675,9 +648,6 @@
   </si>
   <si>
     <t>Chicago Biomedical Consortium Scholar Award; Biotechnology Trainining Program Trainee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulbright Scholar; Catalan Research Award; James S. McDonnell Foundation Career Award;  Inaugural Erdos-Renyi Prize in Network Science; German Physical Society Young Scientist Award for Socio- and Econophysics; </t>
   </si>
   <si>
     <t>Fulbright Scholar; Marie Curie Reintegration Award; James S. McDonnell Foundation Career Award</t>
@@ -743,6 +713,39 @@
   </si>
   <si>
     <t>Kazi Helal</t>
+  </si>
+  <si>
+    <t>Jo\~ao Moreira</t>
+  </si>
+  <si>
+    <t>Joana Migu\'ens, M.Sc.</t>
+  </si>
+  <si>
+    <t>Roger Guimer\`a, Ph.D.</t>
+  </si>
+  <si>
+    <t>Fulbright Scholar; Catalan Research Award; James S. McDonnell Foundation Career Award;  Inaugural Erd\"os-R\`enyi Prize in Network Science; German Physical Society Young Scientist Award for Socio- and Econophysics</t>
+  </si>
+  <si>
+    <t>Graduate Student at Universidade de S\~ao Paulo</t>
+  </si>
+  <si>
+    <t>Funda\c{c}\~ao para a Ci\^encia e Tecnologia Fellow</t>
+  </si>
+  <si>
+    <t>Universidade Estadual de Maringa</t>
+  </si>
+  <si>
+    <t>Graduate Student at Universidade Estadual de Maringa</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Ceara, Brazil</t>
+  </si>
+  <si>
+    <t>Andre A. Moreira, Ph.D.</t>
+  </si>
+  <si>
+    <t>NSF IGERT Trainee; Junta para la Ampliacion de Estudios, Juan de la Cierva Fellowship, University of Canterbury Early and Emerging Career Researcher Award; Rutherford Discovery Fellow; ESA Junior Fellow</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,16 +1156,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1185,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1211,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1315,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
@@ -1526,7 +1529,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1553,7 +1556,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
@@ -1574,13 +1577,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
@@ -1601,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -1628,13 +1631,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1655,13 +1658,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>0</v>
@@ -1682,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -1709,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -1736,10 +1739,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -1763,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -1789,7 +1792,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1808,16 +1811,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1834,19 +1837,19 @@
         <v>2009</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1860,19 +1863,19 @@
         <v>2008</v>
       </c>
       <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1886,7 +1889,7 @@
         <v>2008</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1895,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1912,19 +1915,19 @@
         <v>2008</v>
       </c>
       <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1938,7 +1941,7 @@
         <v>2009</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -1947,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1964,7 +1967,7 @@
         <v>2009</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -1973,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1990,7 +1993,7 @@
         <v>2012</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -1999,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2016,7 +2019,7 @@
         <v>2011</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -2025,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2042,19 +2045,19 @@
         <v>2011</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2068,7 +2071,7 @@
         <v>2012</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -2077,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2094,7 +2097,7 @@
         <v>2013</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -2103,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2121,7 +2124,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -2133,7 +2136,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2148,7 +2151,7 @@
         <v>2014</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -2175,7 +2178,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2187,7 +2190,7 @@
         <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2229,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -2256,10 +2259,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>0</v>
@@ -2283,13 +2286,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -2310,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -2355,16 +2358,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2381,19 +2384,19 @@
         <v>2009</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2407,19 +2410,19 @@
         <v>2009</v>
       </c>
       <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2433,16 +2436,16 @@
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -2459,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -2485,10 +2488,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -2514,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -2536,14 +2539,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="6" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
     <col min="7" max="7" width="48.33203125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
@@ -2556,16 +2560,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2582,19 +2586,19 @@
         <v>1999</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2608,19 +2612,19 @@
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2634,10 +2638,10 @@
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -2660,10 +2664,10 @@
         <v>2002</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -2686,19 +2690,19 @@
         <v>2005</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2712,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -2738,10 +2742,10 @@
         <v>2005</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
@@ -2764,19 +2768,19 @@
         <v>2005</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2790,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2816,19 +2820,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2842,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2869,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -2881,7 +2885,7 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2896,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -2923,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2950,19 +2954,19 @@
         <v>2009</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2977,19 +2981,19 @@
         <v>2009</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3004,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3031,10 +3035,10 @@
         <v>2009</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -3058,19 +3062,19 @@
         <v>2010</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3085,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -3112,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
@@ -3139,19 +3143,19 @@
         <v>2012</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3166,10 +3170,10 @@
         <v>2012</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -3193,19 +3197,19 @@
         <v>2012</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3220,10 +3224,10 @@
         <v>2012</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -3247,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -3274,19 +3278,19 @@
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3301,19 +3305,19 @@
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,16 +3332,16 @@
         <v>2016</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -3355,16 +3359,16 @@
         <v>2016</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>128</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -3382,16 +3386,16 @@
         <v>2016</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -3409,19 +3413,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H33" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3436,19 +3440,19 @@
         <v>2015</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3463,19 +3467,19 @@
         <v>2016</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" t="s">
         <v>136</v>
-      </c>
-      <c r="F35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3490,19 +3494,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3517,19 +3521,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -3571,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -3598,10 +3602,10 @@
         <v>2016</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -3625,10 +3629,10 @@
         <v>2016</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -3652,19 +3656,19 @@
         <v>2016</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3679,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -3706,16 +3710,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>

--- a/Data_files/mentoring.xlsx
+++ b/Data_files/mentoring.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28160" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="2980" yWindow="2360" windowWidth="28160" windowHeight="15160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Graduate Students" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="246">
   <si>
     <t>-</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Daniel B. Stouffer, Ph.D.</t>
   </si>
   <si>
-    <t>co-advised with J. Ottino</t>
-  </si>
-  <si>
     <t>Founder, Managing Partner</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Erin N. Sawardecker-Amundsen, Ph.D.</t>
   </si>
   <si>
-    <t>co-advised with R. Morimoto</t>
-  </si>
-  <si>
     <t>Director, Computational Toxicology</t>
   </si>
   <si>
@@ -158,18 +152,12 @@
     <t>Nicolas Pelaez, Ph.D.</t>
   </si>
   <si>
-    <t>co-advised with R. Carthew</t>
-  </si>
-  <si>
     <t>Caltech</t>
   </si>
   <si>
     <t>Adam Hockenberry</t>
   </si>
   <si>
-    <t>co-advised with M. Jewett</t>
-  </si>
-  <si>
     <t>Hyojun (June) Ada Lee</t>
   </si>
   <si>
@@ -179,9 +167,6 @@
     <t>Sophia Liu</t>
   </si>
   <si>
-    <t>co-advised with N. Bagheri</t>
-  </si>
-  <si>
     <t>Sebastian Bernasek</t>
   </si>
   <si>
@@ -191,9 +176,6 @@
     <t>Meagan Bechel</t>
   </si>
   <si>
-    <t>co-advised with C. Weiss</t>
-  </si>
-  <si>
     <t>Zhiheng Bai</t>
   </si>
   <si>
@@ -203,9 +185,6 @@
     <t>Associate Professor of Chemical Engineering</t>
   </si>
   <si>
-    <t>Roger Guimera, Ph.D.</t>
-  </si>
-  <si>
     <t>Senior Research Professor</t>
   </si>
   <si>
@@ -263,9 +242,6 @@
     <t>Filippo Radicchi, Ph.D.</t>
   </si>
   <si>
-    <t>Assistant Professor of Information Sciences</t>
-  </si>
-  <si>
     <t>Indiana University, Bloomington</t>
   </si>
   <si>
@@ -300,12 +276,6 @@
   </si>
   <si>
     <t>co-advised with B. Uzzi</t>
-  </si>
-  <si>
-    <t>DSI Scholar</t>
-  </si>
-  <si>
-    <t>Research Assistant Professor</t>
   </si>
   <si>
     <t>Michael Jewett, Ph.D.</t>
@@ -718,15 +688,9 @@
     <t>Jo\~ao Moreira</t>
   </si>
   <si>
-    <t>Joana Migu\'ens, M.Sc.</t>
-  </si>
-  <si>
     <t>Roger Guimer\`a, Ph.D.</t>
   </si>
   <si>
-    <t>Fulbright Scholar; Catalan Research Award; James S. McDonnell Foundation Career Award;  Inaugural Erd\"os-R\`enyi Prize in Network Science; German Physical Society Young Scientist Award for Socio- and Econophysics</t>
-  </si>
-  <si>
     <t>Graduate Student at Universidade de S\~ao Paulo</t>
   </si>
   <si>
@@ -746,6 +710,75 @@
   </si>
   <si>
     <t>NSF IGERT Trainee; Junta para la Ampliacion de Estudios, Juan de la Cierva Fellowship, University of Canterbury Early and Emerging Career Researcher Award; Rutherford Discovery Fellow; ESA Junior Fellow</t>
+  </si>
+  <si>
+    <t>Fulbright Scholar; Catalan Research Award; James S. McDonnell Foundation Career Award;  Inaugural Erdos-R\`enyi Prize in Network Science; German Physical Society Young Scientist Award for Socio- and Econophysics</t>
+  </si>
+  <si>
+    <t>Joana Miguens, M.Sc.</t>
+  </si>
+  <si>
+    <t>MS Student at Northwestern University</t>
+  </si>
+  <si>
+    <t>Akhil Shanishetti</t>
+  </si>
+  <si>
+    <t>Associate Professor of Information Sciences</t>
+  </si>
+  <si>
+    <t>University of Texas, Austin</t>
+  </si>
+  <si>
+    <t>Isabel Diersen</t>
+  </si>
+  <si>
+    <t>Noah Guale</t>
+  </si>
+  <si>
+    <t>Simran Khunger</t>
+  </si>
+  <si>
+    <t>Home-schooled Student</t>
+  </si>
+  <si>
+    <t>Oscar Michel</t>
+  </si>
+  <si>
+    <t>Mathias Newman</t>
+  </si>
+  <si>
+    <t>Guobiao Li</t>
+  </si>
+  <si>
+    <t>Kathryn Albretch</t>
+  </si>
+  <si>
+    <t>co-advised with Adam Pah and John Hagan</t>
+  </si>
+  <si>
+    <t>Lukas Gross</t>
+  </si>
+  <si>
+    <t>Data Science Scholar</t>
+  </si>
+  <si>
+    <t>co-advised with Curtis Weiss</t>
+  </si>
+  <si>
+    <t>co-advised with Neda Bagheri</t>
+  </si>
+  <si>
+    <t>co-advised with Michael Jewett</t>
+  </si>
+  <si>
+    <t>co-advised with Richard Carthew</t>
+  </si>
+  <si>
+    <t>co-advised with Richard Morimoto</t>
+  </si>
+  <si>
+    <t>co-advised with Julio Ottino</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,16 +1189,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1188,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1211,16 +1244,16 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1234,19 +1267,19 @@
         <v>2009</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1260,7 +1293,7 @@
         <v>2010</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -1269,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1286,19 +1319,19 @@
         <v>2011</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1312,19 +1345,19 @@
         <v>2011</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1338,7 +1371,7 @@
         <v>2014</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -1347,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1364,19 +1397,19 @@
         <v>2010</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1390,19 +1423,19 @@
         <v>2013</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1416,19 +1449,19 @@
         <v>2012</v>
       </c>
       <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,7 +1475,7 @@
         <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -1451,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1469,19 +1502,19 @@
         <v>2014</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1496,19 +1529,19 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,19 +1556,19 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1546,23 +1579,23 @@
       <c r="B16">
         <v>2011</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
+      <c r="C16">
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1573,17 +1606,17 @@
       <c r="B17">
         <v>2012</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
+      <c r="C17">
+        <v>2017</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
@@ -1604,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -1631,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1658,13 +1691,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>0</v>
@@ -1685,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -1712,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -1739,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -1766,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -1789,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1811,16 +1844,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1837,19 +1870,19 @@
         <v>2009</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1863,19 +1896,19 @@
         <v>2008</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1889,7 +1922,7 @@
         <v>2008</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1898,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1915,19 +1948,19 @@
         <v>2008</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1941,7 +1974,7 @@
         <v>2009</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -1950,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,7 +2000,7 @@
         <v>2009</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -1976,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1993,7 +2026,7 @@
         <v>2012</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -2002,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2019,7 +2052,7 @@
         <v>2011</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -2028,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2045,19 +2078,19 @@
         <v>2011</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2071,7 +2104,7 @@
         <v>2012</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -2080,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2097,7 +2130,7 @@
         <v>2013</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -2106,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2124,7 +2157,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -2133,15 +2166,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:A17" si="0">A13+1</f>
+        <f t="shared" ref="A14:A16" si="0">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14">
@@ -2151,7 +2184,7 @@
         <v>2014</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -2160,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2178,7 +2211,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2187,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2199,21 +2232,21 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
+        <v>2016</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -2222,7 +2255,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>15</v>
       </c>
       <c r="B17">
@@ -2232,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -2249,7 +2282,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f>A17+1</f>
+        <f t="shared" ref="A18:A19" si="1">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18">
@@ -2259,13 +2292,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>239</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
@@ -2276,7 +2309,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A20" si="1">A18+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -2286,45 +2319,18 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>90</v>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2016</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2336,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,16 +2364,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2378,25 +2384,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2404,25 +2410,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2008</v>
-      </c>
-      <c r="C3">
-        <v>2009</v>
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2430,25 +2436,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2456,16 +2462,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -2474,58 +2480,6 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2013</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2015</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2537,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2560,16 +2514,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2586,19 +2540,19 @@
         <v>1999</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2612,19 +2566,19 @@
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2638,10 +2592,10 @@
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -2664,10 +2618,10 @@
         <v>2002</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -2690,19 +2644,19 @@
         <v>2005</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2716,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -2742,10 +2696,10 @@
         <v>2005</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
@@ -2768,19 +2722,19 @@
         <v>2005</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2794,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2820,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2846,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2873,19 +2827,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2900,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -2927,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2954,19 +2908,19 @@
         <v>2009</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2981,19 +2935,19 @@
         <v>2009</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,24 +2962,24 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A44" si="1">A18+1</f>
+        <f t="shared" ref="A19:A53" si="1">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19">
@@ -3035,10 +2989,10 @@
         <v>2009</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -3062,19 +3016,19 @@
         <v>2010</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3089,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -3116,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
@@ -3143,19 +3097,19 @@
         <v>2012</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3170,10 +3124,10 @@
         <v>2012</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -3197,19 +3151,19 @@
         <v>2012</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,10 +3178,10 @@
         <v>2012</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -3251,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -3278,19 +3232,19 @@
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3305,19 +3259,19 @@
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3332,19 +3286,19 @@
         <v>2016</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3359,19 +3313,19 @@
         <v>2016</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3386,16 +3340,16 @@
         <v>2016</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -3413,19 +3367,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3440,19 +3394,19 @@
         <v>2015</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3467,19 +3421,19 @@
         <v>2016</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3521,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3548,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -3575,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -3602,10 +3556,10 @@
         <v>2016</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -3629,10 +3583,10 @@
         <v>2016</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -3656,19 +3610,19 @@
         <v>2016</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3683,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -3710,26 +3664,263 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2016</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2017</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2017</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2017</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2017</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2017</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2017</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2017</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2017</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:H39">

--- a/Data_files/mentoring.xlsx
+++ b/Data_files/mentoring.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/PycharmProjects/maintaining_latex_cv/Data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/Box Sync/CodingProjects/maintaining_latex_cv/Data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8B821-DA1D-6C4A-B9E9-09E166AE265C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2360" windowWidth="28160" windowHeight="15160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28160" windowHeight="15160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graduate Students" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Junior Faculty" sheetId="4" r:id="rId3"/>
     <sheet name="Other Trainees" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="253">
   <si>
     <t>-</t>
   </si>
@@ -674,6 +675,7 @@
         <sz val="11.5"/>
         <color rgb="FF141413"/>
         <rFont val="Times"/>
+        <family val="1"/>
       </rPr>
       <t>Intel Science Talent Search</t>
     </r>
@@ -779,12 +781,33 @@
   </si>
   <si>
     <t>co-advised with Julio Ottino</t>
+  </si>
+  <si>
+    <t>Ziyou Ren</t>
+  </si>
+  <si>
+    <t>Northshore Medicine</t>
+  </si>
+  <si>
+    <t>ICU Director</t>
+  </si>
+  <si>
+    <t>co-advised with Scott Buddinger</t>
+  </si>
+  <si>
+    <t>Army Research Laboratory</t>
+  </si>
+  <si>
+    <t>Paul A. Reyfman, M.D.</t>
+  </si>
+  <si>
+    <t>Instructor -- F32 award</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -805,6 +828,7 @@
       <sz val="11.5"/>
       <color rgb="FF141413"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -827,6 +851,7 @@
       <sz val="11.5"/>
       <color rgb="FF141413"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -899,6 +924,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,11 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1682,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A24" si="1">A18+1</f>
+        <f t="shared" ref="A19:A25" si="1">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1811,6 +1839,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1821,11 +1876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2247,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2282,7 +2337,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:A19" si="1">A17+1</f>
+        <f t="shared" ref="A18:A20" si="1">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18">
@@ -2315,8 +2370,8 @@
       <c r="B19">
         <v>2016</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
+      <c r="C19">
+        <v>2017</v>
       </c>
       <c r="D19" t="s">
         <v>90</v>
@@ -2328,11 +2383,47 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,11 +2432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2451,14 +2542,15 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -2481,6 +2573,33 @@
       </c>
       <c r="H5" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f>A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2490,10 +2609,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
